--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.7715086663856</v>
+        <v>18.45425133333334</v>
       </c>
       <c r="H2">
-        <v>11.7715086663856</v>
+        <v>55.362754</v>
       </c>
       <c r="I2">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="J2">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.932219545915719</v>
+        <v>1.051757666666667</v>
       </c>
       <c r="N2">
-        <v>0.932219545915719</v>
+        <v>3.155273</v>
       </c>
       <c r="O2">
-        <v>0.1132524465424855</v>
+        <v>0.1232157231996577</v>
       </c>
       <c r="P2">
-        <v>0.1132524465424855</v>
+        <v>0.1232157231996577</v>
       </c>
       <c r="Q2">
-        <v>10.97363046372094</v>
+        <v>19.40940032242689</v>
       </c>
       <c r="R2">
-        <v>10.97363046372094</v>
+        <v>174.684602901842</v>
       </c>
       <c r="S2">
-        <v>0.02902078413358869</v>
+        <v>0.04183143439474393</v>
       </c>
       <c r="T2">
-        <v>0.02902078413358869</v>
+        <v>0.04183143439474393</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.7715086663856</v>
+        <v>18.45425133333334</v>
       </c>
       <c r="H3">
-        <v>11.7715086663856</v>
+        <v>55.362754</v>
       </c>
       <c r="I3">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="J3">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.55247332724227</v>
+        <v>2.573216666666667</v>
       </c>
       <c r="N3">
-        <v>2.55247332724227</v>
+        <v>7.71965</v>
       </c>
       <c r="O3">
-        <v>0.3100920274747814</v>
+        <v>0.3014579903540003</v>
       </c>
       <c r="P3">
-        <v>0.3100920274747814</v>
+        <v>0.3014579903540003</v>
       </c>
       <c r="Q3">
-        <v>30.04646189235047</v>
+        <v>47.48678710178889</v>
       </c>
       <c r="R3">
-        <v>30.04646189235047</v>
+        <v>427.3810839161</v>
       </c>
       <c r="S3">
-        <v>0.07946065683902516</v>
+        <v>0.1023442448641956</v>
       </c>
       <c r="T3">
-        <v>0.07946065683902516</v>
+        <v>0.1023442448641956</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.7715086663856</v>
+        <v>18.45425133333334</v>
       </c>
       <c r="H4">
-        <v>11.7715086663856</v>
+        <v>55.362754</v>
       </c>
       <c r="I4">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="J4">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.95550011024869</v>
+        <v>2.038526333333333</v>
       </c>
       <c r="N4">
-        <v>1.95550011024869</v>
+        <v>6.115579</v>
       </c>
       <c r="O4">
-        <v>0.2375676123398798</v>
+        <v>0.2388178421549069</v>
       </c>
       <c r="P4">
-        <v>0.2375676123398798</v>
+        <v>0.2388178421549069</v>
       </c>
       <c r="Q4">
-        <v>23.01918649491045</v>
+        <v>37.61947730495179</v>
       </c>
       <c r="R4">
-        <v>23.01918649491045</v>
+        <v>338.575295744566</v>
       </c>
       <c r="S4">
-        <v>0.06087637490693297</v>
+        <v>0.08107806891016203</v>
       </c>
       <c r="T4">
-        <v>0.06087637490693297</v>
+        <v>0.08107806891016203</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.7715086663856</v>
+        <v>18.45425133333334</v>
       </c>
       <c r="H5">
-        <v>11.7715086663856</v>
+        <v>55.362754</v>
       </c>
       <c r="I5">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="J5">
-        <v>0.2562486287896821</v>
+        <v>0.3394975357727733</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.79114836396109</v>
+        <v>2.872404</v>
       </c>
       <c r="N5">
-        <v>2.79114836396109</v>
+        <v>8.617212</v>
       </c>
       <c r="O5">
-        <v>0.3390879136428533</v>
+        <v>0.3365084442914349</v>
       </c>
       <c r="P5">
-        <v>0.3390879136428533</v>
+        <v>0.336508444291435</v>
       </c>
       <c r="Q5">
-        <v>32.85602715553595</v>
+        <v>53.008065346872</v>
       </c>
       <c r="R5">
-        <v>32.85602715553595</v>
+        <v>477.072588121848</v>
       </c>
       <c r="S5">
-        <v>0.08689081291013531</v>
+        <v>0.1142437876036717</v>
       </c>
       <c r="T5">
-        <v>0.08689081291013531</v>
+        <v>0.1142437876036717</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.8509582311939</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H6">
-        <v>15.8509582311939</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I6">
-        <v>0.3450523146064267</v>
+        <v>0.2922557988641919</v>
       </c>
       <c r="J6">
-        <v>0.3450523146064267</v>
+        <v>0.292255798864192</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.932219545915719</v>
+        <v>1.051757666666667</v>
       </c>
       <c r="N6">
-        <v>0.932219545915719</v>
+        <v>3.155273</v>
       </c>
       <c r="O6">
-        <v>0.1132524465424855</v>
+        <v>0.1232157231996577</v>
       </c>
       <c r="P6">
-        <v>0.1132524465424855</v>
+        <v>0.1232157231996577</v>
       </c>
       <c r="Q6">
-        <v>14.77657308461261</v>
+        <v>16.70854483168445</v>
       </c>
       <c r="R6">
-        <v>14.77657308461261</v>
+        <v>150.37690348516</v>
       </c>
       <c r="S6">
-        <v>0.03907801881432523</v>
+        <v>0.03601050961634512</v>
       </c>
       <c r="T6">
-        <v>0.03907801881432523</v>
+        <v>0.03601050961634512</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.8509582311939</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H7">
-        <v>15.8509582311939</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I7">
-        <v>0.3450523146064267</v>
+        <v>0.2922557988641919</v>
       </c>
       <c r="J7">
-        <v>0.3450523146064267</v>
+        <v>0.292255798864192</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.55247332724227</v>
+        <v>2.573216666666667</v>
       </c>
       <c r="N7">
-        <v>2.55247332724227</v>
+        <v>7.71965</v>
       </c>
       <c r="O7">
-        <v>0.3100920274747814</v>
+        <v>0.3014579903540003</v>
       </c>
       <c r="P7">
-        <v>0.3100920274747814</v>
+        <v>0.3014579903540003</v>
       </c>
       <c r="Q7">
-        <v>40.45914809635374</v>
+        <v>40.87890908644444</v>
       </c>
       <c r="R7">
-        <v>40.45914809635374</v>
+        <v>367.9101817779999</v>
       </c>
       <c r="S7">
-        <v>0.106997971821173</v>
+        <v>0.08810284579490223</v>
       </c>
       <c r="T7">
-        <v>0.106997971821173</v>
+        <v>0.08810284579490224</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.8509582311939</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H8">
-        <v>15.8509582311939</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I8">
-        <v>0.3450523146064267</v>
+        <v>0.2922557988641919</v>
       </c>
       <c r="J8">
-        <v>0.3450523146064267</v>
+        <v>0.292255798864192</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.95550011024869</v>
+        <v>2.038526333333333</v>
       </c>
       <c r="N8">
-        <v>1.95550011024869</v>
+        <v>6.115579</v>
       </c>
       <c r="O8">
-        <v>0.2375676123398798</v>
+        <v>0.2388178421549069</v>
       </c>
       <c r="P8">
-        <v>0.2375676123398798</v>
+        <v>0.2388178421549069</v>
       </c>
       <c r="Q8">
-        <v>30.99655056864705</v>
+        <v>32.38465447940889</v>
       </c>
       <c r="R8">
-        <v>30.99655056864705</v>
+        <v>291.46189031468</v>
       </c>
       <c r="S8">
-        <v>0.08197325451339782</v>
+        <v>0.0697958992420048</v>
       </c>
       <c r="T8">
-        <v>0.08197325451339782</v>
+        <v>0.06979589924200481</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.8509582311939</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H9">
-        <v>15.8509582311939</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I9">
-        <v>0.3450523146064267</v>
+        <v>0.2922557988641919</v>
       </c>
       <c r="J9">
-        <v>0.3450523146064267</v>
+        <v>0.292255798864192</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.79114836396109</v>
+        <v>2.872404</v>
       </c>
       <c r="N9">
-        <v>2.79114836396109</v>
+        <v>8.617212</v>
       </c>
       <c r="O9">
-        <v>0.3390879136428533</v>
+        <v>0.3365084442914349</v>
       </c>
       <c r="P9">
-        <v>0.3390879136428533</v>
+        <v>0.336508444291435</v>
       </c>
       <c r="Q9">
-        <v>44.24237613421243</v>
+        <v>45.63189081455999</v>
       </c>
       <c r="R9">
-        <v>44.24237613421243</v>
+        <v>410.68701733104</v>
       </c>
       <c r="S9">
-        <v>0.1170030694575307</v>
+        <v>0.09834654421093973</v>
       </c>
       <c r="T9">
-        <v>0.1170030694575307</v>
+        <v>0.09834654421093977</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.89375579677336</v>
+        <v>4.826026</v>
       </c>
       <c r="H10">
-        <v>3.89375579677336</v>
+        <v>14.478078</v>
       </c>
       <c r="I10">
-        <v>0.08476140247122727</v>
+        <v>0.08878300750222795</v>
       </c>
       <c r="J10">
-        <v>0.08476140247122727</v>
+        <v>0.08878300750222796</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.932219545915719</v>
+        <v>1.051757666666667</v>
       </c>
       <c r="N10">
-        <v>0.932219545915719</v>
+        <v>3.155273</v>
       </c>
       <c r="O10">
-        <v>0.1132524465424855</v>
+        <v>0.1232157231996577</v>
       </c>
       <c r="P10">
-        <v>0.1132524465424855</v>
+        <v>0.1232157231996577</v>
       </c>
       <c r="Q10">
-        <v>3.62983526077476</v>
+        <v>5.075809845032667</v>
       </c>
       <c r="R10">
-        <v>3.62983526077476</v>
+        <v>45.682288605294</v>
       </c>
       <c r="S10">
-        <v>0.009599436202238767</v>
+        <v>0.01093946247722766</v>
       </c>
       <c r="T10">
-        <v>0.009599436202238767</v>
+        <v>0.01093946247722766</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.89375579677336</v>
+        <v>4.826026</v>
       </c>
       <c r="H11">
-        <v>3.89375579677336</v>
+        <v>14.478078</v>
       </c>
       <c r="I11">
-        <v>0.08476140247122727</v>
+        <v>0.08878300750222795</v>
       </c>
       <c r="J11">
-        <v>0.08476140247122727</v>
+        <v>0.08878300750222796</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.55247332724227</v>
+        <v>2.573216666666667</v>
       </c>
       <c r="N11">
-        <v>2.55247332724227</v>
+        <v>7.71965</v>
       </c>
       <c r="O11">
-        <v>0.3100920274747814</v>
+        <v>0.3014579903540003</v>
       </c>
       <c r="P11">
-        <v>0.3100920274747814</v>
+        <v>0.3014579903540003</v>
       </c>
       <c r="Q11">
-        <v>9.938707814058974</v>
+        <v>12.41841053696667</v>
       </c>
       <c r="R11">
-        <v>9.938707814058974</v>
+        <v>111.7656948327</v>
       </c>
       <c r="S11">
-        <v>0.02628383514390881</v>
+        <v>0.02676434701920577</v>
       </c>
       <c r="T11">
-        <v>0.02628383514390881</v>
+        <v>0.02676434701920578</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.89375579677336</v>
+        <v>4.826026</v>
       </c>
       <c r="H12">
-        <v>3.89375579677336</v>
+        <v>14.478078</v>
       </c>
       <c r="I12">
-        <v>0.08476140247122727</v>
+        <v>0.08878300750222795</v>
       </c>
       <c r="J12">
-        <v>0.08476140247122727</v>
+        <v>0.08878300750222796</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.95550011024869</v>
+        <v>2.038526333333333</v>
       </c>
       <c r="N12">
-        <v>1.95550011024869</v>
+        <v>6.115579</v>
       </c>
       <c r="O12">
-        <v>0.2375676123398798</v>
+        <v>0.2388178421549069</v>
       </c>
       <c r="P12">
-        <v>0.2375676123398798</v>
+        <v>0.2388178421549069</v>
       </c>
       <c r="Q12">
-        <v>7.614239889871781</v>
+        <v>9.837981086351332</v>
       </c>
       <c r="R12">
-        <v>7.614239889871781</v>
+        <v>88.54182977716201</v>
       </c>
       <c r="S12">
-        <v>0.02013656400366905</v>
+        <v>0.02120296627170499</v>
       </c>
       <c r="T12">
-        <v>0.02013656400366905</v>
+        <v>0.021202966271705</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.89375579677336</v>
+        <v>4.826026</v>
       </c>
       <c r="H13">
-        <v>3.89375579677336</v>
+        <v>14.478078</v>
       </c>
       <c r="I13">
-        <v>0.08476140247122727</v>
+        <v>0.08878300750222795</v>
       </c>
       <c r="J13">
-        <v>0.08476140247122727</v>
+        <v>0.08878300750222796</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.79114836396109</v>
+        <v>2.872404</v>
       </c>
       <c r="N13">
-        <v>2.79114836396109</v>
+        <v>8.617212</v>
       </c>
       <c r="O13">
-        <v>0.3390879136428533</v>
+        <v>0.3365084442914349</v>
       </c>
       <c r="P13">
-        <v>0.3390879136428533</v>
+        <v>0.336508444291435</v>
       </c>
       <c r="Q13">
-        <v>10.86805012182797</v>
+        <v>13.862296386504</v>
       </c>
       <c r="R13">
-        <v>10.86805012182797</v>
+        <v>124.760667478536</v>
       </c>
       <c r="S13">
-        <v>0.02874156712141065</v>
+        <v>0.02987623173408952</v>
       </c>
       <c r="T13">
-        <v>0.02874156712141065</v>
+        <v>0.02987623173408954</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.4216179176535</v>
+        <v>15.19095733333334</v>
       </c>
       <c r="H14">
-        <v>14.4216179176535</v>
+        <v>45.572872</v>
       </c>
       <c r="I14">
-        <v>0.3139376541326641</v>
+        <v>0.2794636578608068</v>
       </c>
       <c r="J14">
-        <v>0.3139376541326641</v>
+        <v>0.2794636578608069</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.932219545915719</v>
+        <v>1.051757666666667</v>
       </c>
       <c r="N14">
-        <v>0.932219545915719</v>
+        <v>3.155273</v>
       </c>
       <c r="O14">
-        <v>0.1132524465424855</v>
+        <v>0.1232157231996577</v>
       </c>
       <c r="P14">
-        <v>0.1132524465424855</v>
+        <v>0.1232157231996577</v>
       </c>
       <c r="Q14">
-        <v>13.44411410656494</v>
+        <v>15.97720583933956</v>
       </c>
       <c r="R14">
-        <v>13.44411410656494</v>
+        <v>143.794852554056</v>
       </c>
       <c r="S14">
-        <v>0.03555420739233284</v>
+        <v>0.03443431671134103</v>
       </c>
       <c r="T14">
-        <v>0.03555420739233284</v>
+        <v>0.03443431671134103</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.4216179176535</v>
+        <v>15.19095733333334</v>
       </c>
       <c r="H15">
-        <v>14.4216179176535</v>
+        <v>45.572872</v>
       </c>
       <c r="I15">
-        <v>0.3139376541326641</v>
+        <v>0.2794636578608068</v>
       </c>
       <c r="J15">
-        <v>0.3139376541326641</v>
+        <v>0.2794636578608069</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.55247332724227</v>
+        <v>2.573216666666667</v>
       </c>
       <c r="N15">
-        <v>2.55247332724227</v>
+        <v>7.71965</v>
       </c>
       <c r="O15">
-        <v>0.3100920274747814</v>
+        <v>0.3014579903540003</v>
       </c>
       <c r="P15">
-        <v>0.3100920274747814</v>
+        <v>0.3014579903540003</v>
       </c>
       <c r="Q15">
-        <v>36.81079507048977</v>
+        <v>39.08962459275556</v>
       </c>
       <c r="R15">
-        <v>36.81079507048977</v>
+        <v>351.8066213348</v>
       </c>
       <c r="S15">
-        <v>0.09734956367067447</v>
+        <v>0.08424655267569676</v>
       </c>
       <c r="T15">
-        <v>0.09734956367067447</v>
+        <v>0.08424655267569678</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.4216179176535</v>
+        <v>15.19095733333334</v>
       </c>
       <c r="H16">
-        <v>14.4216179176535</v>
+        <v>45.572872</v>
       </c>
       <c r="I16">
-        <v>0.3139376541326641</v>
+        <v>0.2794636578608068</v>
       </c>
       <c r="J16">
-        <v>0.3139376541326641</v>
+        <v>0.2794636578608069</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.95550011024869</v>
+        <v>2.038526333333333</v>
       </c>
       <c r="N16">
-        <v>1.95550011024869</v>
+        <v>6.115579</v>
       </c>
       <c r="O16">
-        <v>0.2375676123398798</v>
+        <v>0.2388178421549069</v>
       </c>
       <c r="P16">
-        <v>0.2375676123398798</v>
+        <v>0.2388178421549069</v>
       </c>
       <c r="Q16">
-        <v>28.2014754279359</v>
+        <v>30.96716655254312</v>
       </c>
       <c r="R16">
-        <v>28.2014754279359</v>
+        <v>278.704498972888</v>
       </c>
       <c r="S16">
-        <v>0.07458141891587999</v>
+        <v>0.06674090773103508</v>
       </c>
       <c r="T16">
-        <v>0.07458141891587999</v>
+        <v>0.0667409077310351</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.4216179176535</v>
+        <v>15.19095733333334</v>
       </c>
       <c r="H17">
-        <v>14.4216179176535</v>
+        <v>45.572872</v>
       </c>
       <c r="I17">
-        <v>0.3139376541326641</v>
+        <v>0.2794636578608068</v>
       </c>
       <c r="J17">
-        <v>0.3139376541326641</v>
+        <v>0.2794636578608069</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.79114836396109</v>
+        <v>2.872404</v>
       </c>
       <c r="N17">
-        <v>2.79114836396109</v>
+        <v>8.617212</v>
       </c>
       <c r="O17">
-        <v>0.3390879136428533</v>
+        <v>0.3365084442914349</v>
       </c>
       <c r="P17">
-        <v>0.3390879136428533</v>
+        <v>0.336508444291435</v>
       </c>
       <c r="Q17">
-        <v>40.2528752565305</v>
+        <v>43.634566608096</v>
       </c>
       <c r="R17">
-        <v>40.2528752565305</v>
+        <v>392.711099472864</v>
       </c>
       <c r="S17">
-        <v>0.1064524641537768</v>
+        <v>0.09404188074273395</v>
       </c>
       <c r="T17">
-        <v>0.1064524641537768</v>
+        <v>0.09404188074273399</v>
       </c>
     </row>
   </sheetData>
